--- a/invoice_январь.xlsx
+++ b/invoice_январь.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,85 +440,107 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>Магазин/Склад</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>Код</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>Номенклатура</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>Дата/Время</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>created_at</t>
+          <t>Тип</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>total_price</t>
+          <t>Количество</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Цена</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Сумма</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>53343.00</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45687.57968444886</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>213372.00</t>
-        </is>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>magazin</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11409</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Жидкость ДОТ-4  тошбака</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45661.94207175926</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30000</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>45</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Product 2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32000.00</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45687.99607019992</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>192000.00</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>magazin</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11561</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ПГУ   DZ9112230178—Х</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45661.94207175926</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Продажа</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>430000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>430000</v>
       </c>
     </row>
   </sheetData>
